--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318772.105275935</v>
+        <v>2316141.7124742</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7226687.771064618</v>
+        <v>7226687.77106462</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>272.9634158794161</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>79.34671579372738</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>130.6455705834373</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>28.3369300140971</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.89436761056344</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>117.1412514608935</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>113.1667354347866</v>
+        <v>53.62179322558099</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>145.1728163810202</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>48.90873156127848</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>49.93354191224999</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>176.8542405897902</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I11" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T11" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U11" t="n">
-        <v>163.0799509371397</v>
+        <v>221.8396402759521</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S12" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T12" t="n">
         <v>174.1470195830784</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>33.87893464137854</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>192.7211945545967</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U13" t="n">
         <v>282.5722990436504</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -1609,13 +1609,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1627,7 +1627,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I14" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>153.5746362079504</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>267.4452578946857</v>
       </c>
       <c r="W14" t="n">
-        <v>244.2088997197622</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S15" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T15" t="n">
         <v>174.1470195830784</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.55306787201719</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>140.4687635648426</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>364.5634615424884</v>
+        <v>129.5655889723158</v>
       </c>
       <c r="G17" t="n">
         <v>408.5363925405122</v>
@@ -1864,7 +1864,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I17" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S17" t="n">
         <v>153.5746362079504</v>
@@ -1903,7 +1903,7 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.242832149011036</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S18" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T18" t="n">
         <v>174.1470195830784</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>194.9306796559391</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>197.864986614084</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H20" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>89.01107211464135</v>
+        <v>29.15584440433495</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S21" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T21" t="n">
         <v>174.1470195830784</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.4950921179896</v>
       </c>
       <c r="H22" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V22" t="n">
-        <v>72.34080175108859</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>4.193170133136579</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2329,7 +2329,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>408.5363925405122</v>
@@ -2338,7 +2338,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I23" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.535560979117111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8.225369044266058</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S24" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T24" t="n">
         <v>174.1470195830784</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>131.4883126692508</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.817421498788705</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T25" t="n">
         <v>232.4136522254854</v>
@@ -2535,7 +2535,7 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2572,7 +2572,7 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H26" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>162.99970180431</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>29.15584440433495</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S27" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T27" t="n">
         <v>174.1470195830784</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>45.93976532780731</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>207.8984862996026</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>27.71256386771658</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>153.5746362079504</v>
       </c>
       <c r="T29" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>280.6744588101224</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S30" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T30" t="n">
         <v>174.1470195830784</v>
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>151.9506836387004</v>
       </c>
       <c r="I31" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.571155413420347</v>
+        <v>145.2478027300621</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.1847765486313</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.535560979117111</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>105.4739735533962</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S33" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T33" t="n">
         <v>174.1470195830784</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.5784157087356</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>33.87893464137857</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3280,10 +3280,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I35" t="n">
         <v>117.8804585990615</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.5125023120067</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>354.9506428027815</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S36" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T36" t="n">
         <v>174.1470195830784</v>
@@ -3426,28 +3426,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>58.39063024554284</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>125.0897031029503</v>
       </c>
       <c r="J37" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>186.5931986026472</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>261.4133702486702</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3520,7 +3520,7 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H38" t="n">
-        <v>315.7755108463297</v>
+        <v>86.95990145510096</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S38" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.242832149011036</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S39" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T39" t="n">
         <v>174.1470195830784</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>131.694227415763</v>
       </c>
       <c r="X40" t="n">
-        <v>5.971124906120635</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3751,7 +3751,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>408.5363925405122</v>
@@ -3760,7 +3760,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I41" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.535560979117101</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>161.2446921003234</v>
       </c>
       <c r="U41" t="n">
-        <v>42.547678491809</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.242832149011033</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S42" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T42" t="n">
         <v>174.1470195830784</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S43" t="n">
-        <v>76.99167902787808</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>196.0476061001764</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>140.2720409219006</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3994,10 +3994,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.535560979117101</v>
       </c>
       <c r="S44" t="n">
         <v>153.5746362079504</v>
@@ -4033,7 +4033,7 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U44" t="n">
-        <v>44.60359453995948</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.36603873724227</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.3495920856427</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>255.3503897264051</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1006.775773684052</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="C2" t="n">
-        <v>1006.775773684052</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="D2" t="n">
-        <v>1006.775773684052</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E2" t="n">
-        <v>1006.775773684052</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F2" t="n">
-        <v>589.8813352140299</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4339,13 +4339,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.881618012246</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.774808715765</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W2" t="n">
-        <v>1006.775773684052</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="X2" t="n">
-        <v>1006.775773684052</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1006.775773684052</v>
+        <v>1675.412152717902</v>
       </c>
     </row>
     <row r="3">
@@ -4418,10 +4418,10 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
-        <v>1549.231189288413</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
         <v>1960.027136360783</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.6041277001235</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C4" t="n">
-        <v>336.6041277001235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>336.6041277001235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>336.6041277001235</v>
+        <v>920.136831012695</v>
       </c>
       <c r="V4" t="n">
-        <v>336.6041277001235</v>
+        <v>920.136831012695</v>
       </c>
       <c r="W4" t="n">
-        <v>336.6041277001235</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X4" t="n">
-        <v>336.6041277001235</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.6041277001235</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1339.790331424607</v>
+        <v>580.789353924969</v>
       </c>
       <c r="C5" t="n">
-        <v>1339.790331424607</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="D5" t="n">
-        <v>1339.790331424607</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="E5" t="n">
-        <v>1339.790331424607</v>
+        <v>187.6138524278995</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>174.7598179982814</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>165.6374665266886</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>165.6374665266886</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4570,49 +4570,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>371.4442765563904</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2161.142036303753</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V5" t="n">
-        <v>1819.035227007271</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W5" t="n">
-        <v>1819.035227007271</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X5" t="n">
-        <v>1429.582621940328</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1429.582621940328</v>
+        <v>981.2840996363659</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154434</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154434</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998575</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.37706100646</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>834.4501588705843</v>
+        <v>894.5965651425092</v>
       </c>
       <c r="T7" t="n">
-        <v>598.7311070388184</v>
+        <v>894.5965651425092</v>
       </c>
       <c r="U7" t="n">
-        <v>313.2923152807194</v>
+        <v>894.5965651425092</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>894.5965651425092</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154361</v>
+        <v>611.2661630736868</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154361</v>
+        <v>611.2661630736868</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>388.1541018903301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>610.8466170372428</v>
+        <v>1319.948424733439</v>
       </c>
       <c r="C8" t="n">
-        <v>610.8466170372428</v>
+        <v>926.7729232363693</v>
       </c>
       <c r="D8" t="n">
-        <v>610.8466170372428</v>
+        <v>926.7729232363693</v>
       </c>
       <c r="E8" t="n">
-        <v>610.8466170372428</v>
+        <v>926.7729232363693</v>
       </c>
       <c r="F8" t="n">
-        <v>193.9521785672206</v>
+        <v>509.878484766347</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>96.71572925435015</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4804,25 +4804,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4840,16 +4840,16 @@
         <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1396.789931183585</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X8" t="n">
-        <v>1007.337326116642</v>
+        <v>1720.443170444836</v>
       </c>
       <c r="Y8" t="n">
-        <v>610.8466170372428</v>
+        <v>1720.443170444836</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195842</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="C10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="D10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="E10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
         <v>335.8859465029718</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>770.119345582702</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="X10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.3238676264566</v>
+        <v>504.1400004035262</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1734.32534930272</v>
+        <v>1171.137846545754</v>
       </c>
       <c r="C11" t="n">
-        <v>1341.149847805651</v>
+        <v>777.9623450486841</v>
       </c>
       <c r="D11" t="n">
-        <v>1341.149847805651</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="E11" t="n">
-        <v>1341.149847805651</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="F11" t="n">
-        <v>924.2554093356284</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="G11" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H11" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I11" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J11" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K11" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920353</v>
       </c>
       <c r="L11" t="n">
         <v>1251.67373183635</v>
@@ -5062,31 +5062,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q11" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R11" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S11" t="n">
-        <v>3677.802689715587</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="T11" t="n">
-        <v>3456.489667361</v>
+        <v>3294.76219545487</v>
       </c>
       <c r="U11" t="n">
-        <v>3291.762444192172</v>
+        <v>3070.681750731686</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.762444192172</v>
+        <v>2728.574941435205</v>
       </c>
       <c r="W11" t="n">
-        <v>2920.763409160459</v>
+        <v>2357.575906403492</v>
       </c>
       <c r="X11" t="n">
-        <v>2531.310804093516</v>
+        <v>1968.123301336549</v>
       </c>
       <c r="Y11" t="n">
-        <v>2134.820095014117</v>
+        <v>1571.63259225715</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K12" t="n">
-        <v>73.55605379431174</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L12" t="n">
-        <v>614.022430327447</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.366865923598</v>
+        <v>1670.250078663075</v>
       </c>
       <c r="N12" t="n">
         <v>1778.30220173075</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.8499366626464</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="C13" t="n">
-        <v>243.6448187286357</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D13" t="n">
-        <v>243.6448187286357</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J13" t="n">
         <v>73.55605379431174</v>
@@ -5226,25 +5226,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S13" t="n">
-        <v>982.6069034220247</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T13" t="n">
-        <v>982.6069034220247</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U13" t="n">
-        <v>697.1803387314687</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V13" t="n">
-        <v>697.1803387314687</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="W13" t="n">
-        <v>413.8499366626464</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="X13" t="n">
-        <v>413.8499366626464</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.8499366626464</v>
+        <v>107.7771998967143</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2136.908874186176</v>
+        <v>1607.5198062869</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.733372689106</v>
+        <v>1607.5198062869</v>
       </c>
       <c r="D14" t="n">
-        <v>1743.733372689106</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="E14" t="n">
-        <v>1341.149847805651</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F14" t="n">
-        <v>924.2554093356284</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G14" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H14" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I14" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J14" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K14" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L14" t="n">
         <v>1251.67373183635</v>
@@ -5290,40 +5290,40 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N14" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O14" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P14" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q14" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R14" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S14" t="n">
-        <v>3522.676794556041</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T14" t="n">
-        <v>3522.676794556041</v>
+        <v>3301.363772201453</v>
       </c>
       <c r="U14" t="n">
-        <v>3522.676794556041</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="V14" t="n">
-        <v>3180.569985259559</v>
+        <v>2775.504296109409</v>
       </c>
       <c r="W14" t="n">
-        <v>2933.894328976971</v>
+        <v>2404.505261077696</v>
       </c>
       <c r="X14" t="n">
-        <v>2933.894328976971</v>
+        <v>2404.505261077696</v>
       </c>
       <c r="Y14" t="n">
-        <v>2537.403619897572</v>
+        <v>2008.014551998297</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>73.55605379431174</v>
       </c>
       <c r="L15" t="n">
-        <v>73.55605379431174</v>
+        <v>360.1952609394043</v>
       </c>
       <c r="M15" t="n">
-        <v>767.7276587785057</v>
+        <v>1054.366865923598</v>
       </c>
       <c r="N15" t="n">
-        <v>1322.638921012355</v>
+        <v>1778.30220173075</v>
       </c>
       <c r="O15" t="n">
-        <v>1901.50987658722</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="P15" t="n">
         <v>2357.173157305615</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.4581425539251</v>
+        <v>509.8268202119234</v>
       </c>
       <c r="C16" t="n">
-        <v>108.4581425539251</v>
+        <v>509.8268202119234</v>
       </c>
       <c r="D16" t="n">
-        <v>73.55605379431174</v>
+        <v>509.8268202119234</v>
       </c>
       <c r="E16" t="n">
-        <v>73.55605379431174</v>
+        <v>367.939180247436</v>
       </c>
       <c r="F16" t="n">
-        <v>73.55605379431174</v>
+        <v>367.939180247436</v>
       </c>
       <c r="G16" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="H16" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I16" t="n">
         <v>73.55605379431174</v>
@@ -5463,25 +5463,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S16" t="n">
-        <v>1177.274776709496</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T16" t="n">
-        <v>1177.274776709496</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="U16" t="n">
-        <v>891.8482120189401</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="V16" t="n">
-        <v>625.8688668397643</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="W16" t="n">
-        <v>342.538464770942</v>
+        <v>695.0348389032247</v>
       </c>
       <c r="X16" t="n">
-        <v>108.4581425539251</v>
+        <v>695.0348389032247</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.4581425539251</v>
+        <v>695.0348389032247</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.525983752404</v>
+        <v>1731.817597709339</v>
       </c>
       <c r="C17" t="n">
-        <v>2080.525983752404</v>
+        <v>1338.64209621227</v>
       </c>
       <c r="D17" t="n">
-        <v>1695.084854969072</v>
+        <v>1338.64209621227</v>
       </c>
       <c r="E17" t="n">
-        <v>1292.501330085617</v>
+        <v>936.0585713288144</v>
       </c>
       <c r="F17" t="n">
-        <v>924.2554093356284</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G17" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H17" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I17" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J17" t="n">
-        <v>259.7759762473727</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K17" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L17" t="n">
         <v>1251.67373183635</v>
@@ -5527,40 +5527,40 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N17" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O17" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P17" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q17" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R17" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S17" t="n">
-        <v>3522.676794556041</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="T17" t="n">
-        <v>3522.676794556041</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="U17" t="n">
-        <v>3266.964043610144</v>
+        <v>3260.36246686356</v>
       </c>
       <c r="V17" t="n">
-        <v>3266.964043610144</v>
+        <v>2918.255657567079</v>
       </c>
       <c r="W17" t="n">
-        <v>3266.964043610144</v>
+        <v>2918.255657567079</v>
       </c>
       <c r="X17" t="n">
-        <v>2877.5114385432</v>
+        <v>2528.803052500135</v>
       </c>
       <c r="Y17" t="n">
-        <v>2481.020729463801</v>
+        <v>2132.312343420736</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>73.55605379431174</v>
       </c>
       <c r="L18" t="n">
-        <v>598.7035852052032</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="M18" t="n">
-        <v>598.7035852052032</v>
+        <v>767.7276587785057</v>
       </c>
       <c r="N18" t="n">
-        <v>1322.638921012355</v>
+        <v>1491.662994585657</v>
       </c>
       <c r="O18" t="n">
-        <v>1901.50987658722</v>
+        <v>2070.533950160522</v>
       </c>
       <c r="P18" t="n">
         <v>2357.173157305615</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.7611717283225</v>
+        <v>863.5893438442106</v>
       </c>
       <c r="C19" t="n">
-        <v>73.55605379431174</v>
+        <v>863.5893438442106</v>
       </c>
       <c r="D19" t="n">
-        <v>73.55605379431174</v>
+        <v>707.9562307467254</v>
       </c>
       <c r="E19" t="n">
-        <v>73.55605379431174</v>
+        <v>552.3974186059279</v>
       </c>
       <c r="F19" t="n">
-        <v>73.55605379431174</v>
+        <v>395.0714838189008</v>
       </c>
       <c r="G19" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H19" t="n">
         <v>73.55605379431174</v>
@@ -5685,40 +5685,40 @@
         <v>598.4387002306314</v>
       </c>
       <c r="N19" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O19" t="n">
         <v>1009.007396819615</v>
       </c>
       <c r="P19" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q19" t="n">
         <v>1177.274776709496</v>
       </c>
       <c r="R19" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S19" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T19" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U19" t="n">
-        <v>891.8482120189401</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="V19" t="n">
-        <v>625.8688668397643</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="W19" t="n">
-        <v>428.9691904196238</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="X19" t="n">
-        <v>428.9691904196238</v>
+        <v>863.5893438442106</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.9691904196238</v>
+        <v>863.5893438442106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1990.615809899231</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C20" t="n">
-        <v>1597.440308402162</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D20" t="n">
-        <v>1211.99917961883</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E20" t="n">
-        <v>809.4156547353741</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F20" t="n">
-        <v>392.5212162653519</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G20" t="n">
-        <v>392.5212162653519</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H20" t="n">
         <v>73.55605379431174</v>
@@ -5752,10 +5752,10 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J20" t="n">
-        <v>259.775976247373</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K20" t="n">
-        <v>681.0612104920361</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L20" t="n">
         <v>1251.67373183635</v>
@@ -5767,37 +5767,37 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O20" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P20" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q20" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R20" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S20" t="n">
-        <v>3522.676794556041</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="T20" t="n">
-        <v>3522.676794556041</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="U20" t="n">
-        <v>3266.964043610144</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="V20" t="n">
-        <v>3177.05386975697</v>
+        <v>3641.750765085837</v>
       </c>
       <c r="W20" t="n">
-        <v>3177.05386975697</v>
+        <v>3270.751730054124</v>
       </c>
       <c r="X20" t="n">
-        <v>2787.601264690027</v>
+        <v>2881.299124987181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2391.110555610628</v>
+        <v>2484.808415907782</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K21" t="n">
-        <v>73.55605379431174</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L21" t="n">
-        <v>73.55605379431174</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M21" t="n">
-        <v>767.7276587785057</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="N21" t="n">
-        <v>1491.662994585657</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O21" t="n">
-        <v>2070.533950160522</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P21" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q21" t="n">
         <v>2357.173157305615</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>227.0415928233021</v>
+        <v>167.99554078218</v>
       </c>
       <c r="C22" t="n">
-        <v>227.0415928233021</v>
+        <v>167.99554078218</v>
       </c>
       <c r="D22" t="n">
-        <v>227.0415928233021</v>
+        <v>167.99554078218</v>
       </c>
       <c r="E22" t="n">
-        <v>227.0415928233021</v>
+        <v>167.99554078218</v>
       </c>
       <c r="F22" t="n">
-        <v>227.0415928233021</v>
+        <v>167.99554078218</v>
       </c>
       <c r="G22" t="n">
-        <v>227.0415928233021</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H22" t="n">
         <v>73.55605379431174</v>
@@ -5922,7 +5922,7 @@
         <v>598.4387002306314</v>
       </c>
       <c r="N22" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O22" t="n">
         <v>1009.007396819615</v>
@@ -5943,19 +5943,19 @@
         <v>942.5135118352684</v>
       </c>
       <c r="U22" t="n">
-        <v>942.5135118352684</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V22" t="n">
-        <v>869.4419949149769</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="W22" t="n">
-        <v>869.4419949149769</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="X22" t="n">
-        <v>635.36167269796</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2496115146034</v>
+        <v>167.99554078218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2105.455564499486</v>
+        <v>2014.338856557363</v>
       </c>
       <c r="C23" t="n">
-        <v>1712.280063002416</v>
+        <v>2010.103331170356</v>
       </c>
       <c r="D23" t="n">
-        <v>1326.838934219084</v>
+        <v>1624.662202387024</v>
       </c>
       <c r="E23" t="n">
-        <v>924.2554093356284</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F23" t="n">
-        <v>924.2554093356284</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G23" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H23" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I23" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J23" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K23" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L23" t="n">
         <v>1251.67373183635</v>
@@ -6010,31 +6010,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q23" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R23" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S23" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T23" t="n">
-        <v>3662.892659388937</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="U23" t="n">
-        <v>3662.892659388937</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V23" t="n">
-        <v>3662.892659388937</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="W23" t="n">
-        <v>3291.893624357225</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="X23" t="n">
-        <v>2902.441019290281</v>
+        <v>2811.324311348159</v>
       </c>
       <c r="Y23" t="n">
-        <v>2505.950310210882</v>
+        <v>2414.833602268759</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K24" t="n">
-        <v>73.55605379431174</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L24" t="n">
-        <v>614.022430327447</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.366865923598</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="N24" t="n">
-        <v>1778.30220173075</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O24" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P24" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q24" t="n">
         <v>2357.173157305615</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.1076019655367</v>
+        <v>235.0653502239068</v>
       </c>
       <c r="C25" t="n">
-        <v>220.9024840315259</v>
+        <v>235.0653502239068</v>
       </c>
       <c r="D25" t="n">
-        <v>88.08600658783817</v>
+        <v>79.43223712642154</v>
       </c>
       <c r="E25" t="n">
-        <v>88.08600658783817</v>
+        <v>79.43223712642154</v>
       </c>
       <c r="F25" t="n">
-        <v>88.08600658783817</v>
+        <v>79.43223712642154</v>
       </c>
       <c r="G25" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H25" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I25" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J25" t="n">
         <v>73.55605379431174</v>
@@ -6174,25 +6174,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S25" t="n">
-        <v>1177.274776709496</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T25" t="n">
-        <v>942.5135118352684</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="U25" t="n">
-        <v>657.0869471447124</v>
+        <v>458.1774114072634</v>
       </c>
       <c r="V25" t="n">
-        <v>391.1076019655367</v>
+        <v>458.1774114072634</v>
       </c>
       <c r="W25" t="n">
-        <v>391.1076019655367</v>
+        <v>458.1774114072634</v>
       </c>
       <c r="X25" t="n">
-        <v>391.1076019655367</v>
+        <v>458.1774114072634</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.1076019655367</v>
+        <v>235.0653502239068</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2010.103331170356</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.103331170356</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D26" t="n">
-        <v>1624.662202387024</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E26" t="n">
-        <v>1222.078677503568</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F26" t="n">
-        <v>805.184239033546</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G26" t="n">
-        <v>392.5212162653519</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H26" t="n">
         <v>73.55605379431174</v>
@@ -6247,31 +6247,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S26" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="T26" t="n">
-        <v>3513.15652627689</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="U26" t="n">
-        <v>3513.15652627689</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="V26" t="n">
-        <v>3171.049716980408</v>
+        <v>3641.750765085837</v>
       </c>
       <c r="W26" t="n">
-        <v>2800.050681948696</v>
+        <v>3270.751730054124</v>
       </c>
       <c r="X26" t="n">
-        <v>2410.598076881753</v>
+        <v>2881.299124987181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2410.598076881753</v>
+        <v>2484.808415907782</v>
       </c>
     </row>
     <row r="27">
@@ -6311,13 +6311,13 @@
         <v>435.6120971457461</v>
       </c>
       <c r="L27" t="n">
-        <v>435.6120971457461</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M27" t="n">
-        <v>435.6120971457461</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.547432952898</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O27" t="n">
         <v>1633.693092099578</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2777.813704948851</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="C28" t="n">
-        <v>2777.813704948851</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="D28" t="n">
-        <v>2777.813704948851</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="E28" t="n">
-        <v>2777.813704948851</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="F28" t="n">
-        <v>2620.487770161824</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="G28" t="n">
-        <v>2574.083966800403</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H28" t="n">
-        <v>2574.083966800403</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I28" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J28" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K28" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L28" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M28" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N28" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O28" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P28" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q28" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R28" t="n">
-        <v>3563.980879692811</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S28" t="n">
-        <v>3563.980879692811</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T28" t="n">
-        <v>3329.219614818583</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U28" t="n">
-        <v>3043.793050128027</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="V28" t="n">
-        <v>2777.813704948851</v>
+        <v>797.4736215075442</v>
       </c>
       <c r="W28" t="n">
-        <v>2777.813704948851</v>
+        <v>587.4751504978445</v>
       </c>
       <c r="X28" t="n">
-        <v>2777.813704948851</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="Y28" t="n">
-        <v>2777.813704948851</v>
+        <v>353.3948282808276</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1401.819868015521</v>
+        <v>1681.73014531293</v>
       </c>
       <c r="C29" t="n">
-        <v>1008.644366518451</v>
+        <v>1288.55464381586</v>
       </c>
       <c r="D29" t="n">
-        <v>623.2032377351188</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="E29" t="n">
-        <v>220.6197128516633</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F29" t="n">
-        <v>192.6272240963941</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G29" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H29" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I29" t="n">
         <v>73.55605379431174</v>
@@ -6475,40 +6475,40 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N29" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O29" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P29" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S29" t="n">
-        <v>3522.676794556041</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T29" t="n">
-        <v>3301.363772201454</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="U29" t="n">
-        <v>3301.363772201454</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="V29" t="n">
-        <v>2959.256962904972</v>
+        <v>3239.167240202381</v>
       </c>
       <c r="W29" t="n">
-        <v>2588.25792787326</v>
+        <v>2868.168205170669</v>
       </c>
       <c r="X29" t="n">
-        <v>2198.805322806316</v>
+        <v>2478.715600103726</v>
       </c>
       <c r="Y29" t="n">
-        <v>1802.314613726918</v>
+        <v>2082.224891024327</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2181.495988346059</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C30" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D30" t="n">
-        <v>1900.752790527632</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E30" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F30" t="n">
-        <v>1639.874493521651</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G30" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H30" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I30" t="n">
-        <v>1394.185586204283</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J30" t="n">
-        <v>1394.185586204283</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K30" t="n">
-        <v>1394.185586204283</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L30" t="n">
-        <v>1934.651962737418</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M30" t="n">
-        <v>2374.99639833357</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N30" t="n">
-        <v>3098.931734140721</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O30" t="n">
-        <v>3677.802689715587</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P30" t="n">
-        <v>3677.802689715587</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q30" t="n">
-        <v>3677.802689715587</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R30" t="n">
-        <v>3670.486697645879</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S30" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T30" t="n">
-        <v>3364.616417350202</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U30" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V30" t="n">
-        <v>2932.030863228215</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W30" t="n">
-        <v>2701.913617361502</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X30" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y30" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3675.205563035364</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="C31" t="n">
-        <v>3505.000445101353</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="D31" t="n">
-        <v>3349.367332003868</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="E31" t="n">
-        <v>3193.808519863071</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="F31" t="n">
-        <v>3036.482585076044</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="G31" t="n">
-        <v>2868.452694080445</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H31" t="n">
-        <v>2714.967155051454</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I31" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J31" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K31" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L31" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M31" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N31" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O31" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P31" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q31" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R31" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S31" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T31" t="n">
-        <v>3677.802689715587</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U31" t="n">
-        <v>3677.802689715587</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.802689715587</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.802689715587</v>
+        <v>373.7565450758901</v>
       </c>
       <c r="X31" t="n">
-        <v>3677.802689715587</v>
+        <v>373.7565450758901</v>
       </c>
       <c r="Y31" t="n">
-        <v>3675.205563035364</v>
+        <v>227.0415928233021</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2017.837703884093</v>
+        <v>2403.278832667425</v>
       </c>
       <c r="C32" t="n">
-        <v>1624.662202387024</v>
+        <v>2010.103331170356</v>
       </c>
       <c r="D32" t="n">
         <v>1624.662202387024</v>
@@ -6688,64 +6688,64 @@
         <v>1222.078677503568</v>
       </c>
       <c r="F32" t="n">
-        <v>805.1842390335461</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G32" t="n">
         <v>392.5212162653519</v>
       </c>
       <c r="H32" t="n">
-        <v>73.55605379431175</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I32" t="n">
-        <v>73.55605379431175</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J32" t="n">
-        <v>259.7759762473729</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K32" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L32" t="n">
-        <v>1251.673731836351</v>
+        <v>1251.67373183635</v>
       </c>
       <c r="M32" t="n">
-        <v>1883.677129957884</v>
+        <v>1883.677129957883</v>
       </c>
       <c r="N32" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O32" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P32" t="n">
-        <v>3440.06552897263</v>
+        <v>3440.065528972629</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.075217809459</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T32" t="n">
-        <v>3294.762195454871</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="U32" t="n">
-        <v>3039.049444508974</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="V32" t="n">
-        <v>3039.049444508974</v>
+        <v>3571.263322489934</v>
       </c>
       <c r="W32" t="n">
-        <v>2668.050409477261</v>
+        <v>3200.264287458221</v>
       </c>
       <c r="X32" t="n">
-        <v>2668.050409477261</v>
+        <v>3200.264287458221</v>
       </c>
       <c r="Y32" t="n">
-        <v>2271.559700397862</v>
+        <v>2803.773578378822</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>113.7374409695304</v>
       </c>
       <c r="I33" t="n">
-        <v>73.55605379431175</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J33" t="n">
-        <v>73.55605379431175</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K33" t="n">
-        <v>73.55605379431175</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L33" t="n">
-        <v>614.022430327447</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.366865923598</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="N33" t="n">
-        <v>1778.30220173075</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O33" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P33" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q33" t="n">
         <v>2357.173157305615</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2574.083966800403</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="C34" t="n">
-        <v>2574.083966800403</v>
+        <v>509.0279413783128</v>
       </c>
       <c r="D34" t="n">
-        <v>2574.083966800403</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="E34" t="n">
-        <v>2574.083966800403</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="F34" t="n">
-        <v>2574.083966800403</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="G34" t="n">
-        <v>2574.083966800403</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H34" t="n">
-        <v>2574.083966800403</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I34" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J34" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K34" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L34" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M34" t="n">
-        <v>3098.966613236723</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N34" t="n">
-        <v>3315.776654803893</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O34" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P34" t="n">
-        <v>3655.983441494189</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q34" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R34" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S34" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T34" t="n">
-        <v>3443.04142484136</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U34" t="n">
-        <v>3157.614860150804</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V34" t="n">
-        <v>2891.635514971628</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="W34" t="n">
-        <v>2608.305112902806</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="X34" t="n">
-        <v>2574.083966800403</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="Y34" t="n">
-        <v>2574.083966800403</v>
+        <v>657.0869471447124</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1790.721817730274</v>
+        <v>2136.908874186176</v>
       </c>
       <c r="C35" t="n">
-        <v>1397.546316233204</v>
+        <v>1743.733372689106</v>
       </c>
       <c r="D35" t="n">
-        <v>1012.105187449872</v>
+        <v>1743.733372689106</v>
       </c>
       <c r="E35" t="n">
-        <v>609.5216625664164</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="F35" t="n">
-        <v>192.6272240963941</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G35" t="n">
-        <v>192.6272240963941</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H35" t="n">
         <v>192.6272240963941</v>
@@ -6937,10 +6937,10 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J35" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K35" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L35" t="n">
         <v>1251.67373183635</v>
@@ -6949,7 +6949,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N35" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O35" t="n">
         <v>3021.445901261525</v>
@@ -6961,28 +6961,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R35" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S35" t="n">
-        <v>3677.802689715587</v>
+        <v>3519.168282350815</v>
       </c>
       <c r="T35" t="n">
-        <v>3677.802689715587</v>
+        <v>3297.855259996228</v>
       </c>
       <c r="U35" t="n">
-        <v>3677.802689715587</v>
+        <v>3297.855259996228</v>
       </c>
       <c r="V35" t="n">
-        <v>3335.695880419105</v>
+        <v>3297.855259996228</v>
       </c>
       <c r="W35" t="n">
-        <v>2977.159877588013</v>
+        <v>2926.856224964516</v>
       </c>
       <c r="X35" t="n">
-        <v>2587.70727252107</v>
+        <v>2537.403619897572</v>
       </c>
       <c r="Y35" t="n">
-        <v>2191.216563441671</v>
+        <v>2537.403619897572</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J36" t="n">
-        <v>73.55605379431174</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K36" t="n">
-        <v>73.55605379431174</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L36" t="n">
-        <v>73.55605379431174</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M36" t="n">
-        <v>767.7276587785057</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N36" t="n">
-        <v>1491.662994585657</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O36" t="n">
-        <v>1901.50987658722</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q36" t="n">
         <v>2357.173157305615</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1063.45296668672</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="C37" t="n">
-        <v>1004.472532095263</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="D37" t="n">
-        <v>848.8394189977773</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="E37" t="n">
-        <v>693.2806068569798</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="F37" t="n">
-        <v>535.9546720699528</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="G37" t="n">
-        <v>367.9247810743541</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="H37" t="n">
-        <v>214.4392420453637</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I37" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J37" t="n">
         <v>73.55605379431174</v>
@@ -7122,25 +7122,25 @@
         <v>1063.45296668672</v>
       </c>
       <c r="S37" t="n">
-        <v>1063.45296668672</v>
+        <v>874.9749883002077</v>
       </c>
       <c r="T37" t="n">
-        <v>1063.45296668672</v>
+        <v>874.9749883002077</v>
       </c>
       <c r="U37" t="n">
-        <v>1063.45296668672</v>
+        <v>589.5484236096516</v>
       </c>
       <c r="V37" t="n">
-        <v>1063.45296668672</v>
+        <v>589.5484236096516</v>
       </c>
       <c r="W37" t="n">
-        <v>1063.45296668672</v>
+        <v>589.5484236096516</v>
       </c>
       <c r="X37" t="n">
-        <v>1063.45296668672</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="Y37" t="n">
-        <v>1063.45296668672</v>
+        <v>355.4681013926348</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2274.157240512447</v>
+        <v>2172.151954494467</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.103331170356</v>
+        <v>1778.976452997398</v>
       </c>
       <c r="D38" t="n">
-        <v>1624.662202387024</v>
+        <v>1393.535324214065</v>
       </c>
       <c r="E38" t="n">
-        <v>1222.078677503568</v>
+        <v>990.9517993306099</v>
       </c>
       <c r="F38" t="n">
-        <v>805.184239033546</v>
+        <v>574.0573608605877</v>
       </c>
       <c r="G38" t="n">
-        <v>392.5212162653519</v>
+        <v>161.3943380923935</v>
       </c>
       <c r="H38" t="n">
         <v>73.55605379431174</v>
@@ -7174,7 +7174,7 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J38" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K38" t="n">
         <v>681.0612104920358</v>
@@ -7195,31 +7195,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q38" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R38" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S38" t="n">
-        <v>3522.676794556041</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="T38" t="n">
-        <v>3301.363772201454</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="U38" t="n">
-        <v>3045.651021255556</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="V38" t="n">
-        <v>3045.651021255556</v>
+        <v>3329.094303672522</v>
       </c>
       <c r="W38" t="n">
-        <v>2674.651986223844</v>
+        <v>2958.09526864081</v>
       </c>
       <c r="X38" t="n">
-        <v>2674.651986223844</v>
+        <v>2568.642663573866</v>
       </c>
       <c r="Y38" t="n">
-        <v>2674.651986223844</v>
+        <v>2172.151954494467</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J39" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K39" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L39" t="n">
-        <v>614.022430327447</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M39" t="n">
-        <v>614.022430327447</v>
+        <v>1322.638921012355</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.957766134598</v>
+        <v>1322.638921012355</v>
       </c>
       <c r="O39" t="n">
         <v>1901.50987658722</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3334.837379210342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C40" t="n">
-        <v>3334.837379210342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D40" t="n">
-        <v>3334.837379210342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E40" t="n">
-        <v>3179.278567069544</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F40" t="n">
-        <v>3021.952632282517</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G40" t="n">
-        <v>2853.922741286919</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H40" t="n">
-        <v>2700.437202257928</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K40" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L40" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M40" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N40" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O40" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P40" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q40" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R40" t="n">
-        <v>3563.980879692811</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S40" t="n">
-        <v>3563.980879692811</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T40" t="n">
-        <v>3563.980879692811</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="U40" t="n">
-        <v>3563.980879692811</v>
+        <v>891.8482120189401</v>
       </c>
       <c r="V40" t="n">
-        <v>3563.980879692811</v>
+        <v>625.8688668397643</v>
       </c>
       <c r="W40" t="n">
-        <v>3563.980879692811</v>
+        <v>492.84439470263</v>
       </c>
       <c r="X40" t="n">
-        <v>3557.949440393699</v>
+        <v>258.764072485613</v>
       </c>
       <c r="Y40" t="n">
-        <v>3334.837379210342</v>
+        <v>258.764072485613</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2129.174501472438</v>
+        <v>1986.384394197403</v>
       </c>
       <c r="C41" t="n">
-        <v>2129.174501472438</v>
+        <v>1593.208892700334</v>
       </c>
       <c r="D41" t="n">
-        <v>1743.733372689106</v>
+        <v>1207.767763917002</v>
       </c>
       <c r="E41" t="n">
-        <v>1341.149847805651</v>
+        <v>805.184239033546</v>
       </c>
       <c r="F41" t="n">
-        <v>924.2554093356284</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G41" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H41" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I41" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J41" t="n">
-        <v>259.7759762473727</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K41" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L41" t="n">
         <v>1251.67373183635</v>
@@ -7423,7 +7423,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N41" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O41" t="n">
         <v>3021.445901261525</v>
@@ -7435,28 +7435,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T41" t="n">
-        <v>3671.201112969004</v>
+        <v>3514.929263351624</v>
       </c>
       <c r="U41" t="n">
-        <v>3628.223659946975</v>
+        <v>3514.929263351624</v>
       </c>
       <c r="V41" t="n">
-        <v>3286.116850650493</v>
+        <v>3172.822454055142</v>
       </c>
       <c r="W41" t="n">
-        <v>2915.117815618781</v>
+        <v>3172.822454055142</v>
       </c>
       <c r="X41" t="n">
-        <v>2525.665210551837</v>
+        <v>2783.369848988199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2129.174501472438</v>
+        <v>2386.8791399088</v>
       </c>
     </row>
     <row r="42">
@@ -7478,10 +7478,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F42" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G42" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H42" t="n">
         <v>113.7374409695304</v>
@@ -7493,13 +7493,13 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K42" t="n">
-        <v>73.55605379431174</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L42" t="n">
-        <v>614.0224303274471</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M42" t="n">
-        <v>1308.194035311641</v>
+        <v>1322.638921012355</v>
       </c>
       <c r="N42" t="n">
         <v>1322.638921012355</v>
@@ -7575,13 +7575,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L43" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M43" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N43" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O43" t="n">
         <v>1009.007396819615</v>
@@ -7593,22 +7593,22 @@
         <v>1177.274776709496</v>
       </c>
       <c r="R43" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S43" t="n">
-        <v>1099.505403954064</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T43" t="n">
-        <v>1099.505403954064</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U43" t="n">
-        <v>814.0788392635077</v>
+        <v>778.0264019961639</v>
       </c>
       <c r="V43" t="n">
-        <v>814.0788392635077</v>
+        <v>579.9985170464907</v>
       </c>
       <c r="W43" t="n">
-        <v>530.7484371946853</v>
+        <v>296.6681149776684</v>
       </c>
       <c r="X43" t="n">
         <v>296.6681149776684</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1698.872541413053</v>
+        <v>2136.908874186176</v>
       </c>
       <c r="C44" t="n">
-        <v>1305.697039915984</v>
+        <v>1743.733372689106</v>
       </c>
       <c r="D44" t="n">
-        <v>1305.697039915984</v>
+        <v>1743.733372689106</v>
       </c>
       <c r="E44" t="n">
-        <v>903.1135150325281</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="F44" t="n">
-        <v>486.2190765625058</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G44" t="n">
-        <v>73.55605379431174</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H44" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I44" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J44" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473727</v>
       </c>
       <c r="K44" t="n">
-        <v>681.0612104920358</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L44" t="n">
         <v>1251.67373183635</v>
@@ -7660,7 +7660,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N44" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O44" t="n">
         <v>3021.445901261525</v>
@@ -7672,28 +7672,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R44" t="n">
-        <v>3677.802689715587</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S44" t="n">
-        <v>3522.676794556041</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="T44" t="n">
-        <v>3301.363772201454</v>
+        <v>3294.762195454871</v>
       </c>
       <c r="U44" t="n">
-        <v>3256.309636302505</v>
+        <v>3039.049444508973</v>
       </c>
       <c r="V44" t="n">
-        <v>3256.309636302505</v>
+        <v>3039.049444508973</v>
       </c>
       <c r="W44" t="n">
-        <v>2885.310601270792</v>
+        <v>2668.050409477261</v>
       </c>
       <c r="X44" t="n">
-        <v>2495.857996203849</v>
+        <v>2278.597804410318</v>
       </c>
       <c r="Y44" t="n">
-        <v>2099.36728712445</v>
+        <v>2278.597804410318</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>976.0784736788814</v>
       </c>
       <c r="M45" t="n">
-        <v>1322.638921012355</v>
+        <v>976.0784736788814</v>
       </c>
       <c r="N45" t="n">
-        <v>1322.638921012355</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O45" t="n">
-        <v>1901.50987658722</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P45" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q45" t="n">
         <v>2357.173157305615</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>367.939180247436</v>
+        <v>720.0823933091225</v>
       </c>
       <c r="C46" t="n">
-        <v>367.939180247436</v>
+        <v>549.8772753751117</v>
       </c>
       <c r="D46" t="n">
-        <v>367.939180247436</v>
+        <v>525.265115034463</v>
       </c>
       <c r="E46" t="n">
-        <v>367.939180247436</v>
+        <v>525.265115034463</v>
       </c>
       <c r="F46" t="n">
         <v>367.939180247436</v>
@@ -7839,19 +7839,19 @@
         <v>1177.274776709496</v>
       </c>
       <c r="U46" t="n">
-        <v>891.8482120189401</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="V46" t="n">
-        <v>625.8688668397643</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="W46" t="n">
-        <v>367.939180247436</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="X46" t="n">
-        <v>367.939180247436</v>
+        <v>943.1944544924792</v>
       </c>
       <c r="Y46" t="n">
-        <v>367.939180247436</v>
+        <v>720.0823933091225</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8066,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238545</v>
       </c>
       <c r="O3" t="n">
-        <v>507.6329599720908</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8218,25 +8218,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>324.3528815085492</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>153.2772452666831</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,16 +8534,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>301.5486891608477</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K12" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>470.1088192600579</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>125.6698486835422</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>36.5359789587112</v>
+        <v>36.53597895871121</v>
       </c>
       <c r="Q12" t="n">
         <v>57.19856433495293</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K15" t="n">
-        <v>46.85259463716363</v>
+        <v>46.85259463716364</v>
       </c>
       <c r="L15" t="n">
-        <v>32.58530581164344</v>
+        <v>322.1198584834541</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>577.0427165281633</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>36.53597895871121</v>
       </c>
       <c r="Q15" t="n">
         <v>57.19856433495293</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K18" t="n">
-        <v>46.85259463716363</v>
+        <v>46.85259463716364</v>
       </c>
       <c r="L18" t="n">
-        <v>563.0373577418369</v>
+        <v>32.58530581164346</v>
       </c>
       <c r="M18" t="n">
-        <v>25.3164600720263</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>326.0705316305221</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.19856433495292</v>
+        <v>57.19856433495293</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K21" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>32.58530581164343</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>96.06534340895344</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>326.0705316305221</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.19856433495292</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K24" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>470.1088192600579</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>96.06534340895344</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,22 +9953,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>32.58530581164344</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>25.3164600720263</v>
+        <v>104.855513451654</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O27" t="n">
-        <v>508.6420903664607</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K30" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>470.1088192600583</v>
+        <v>104.855513451654</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>57.43547118736295</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K33" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>470.1088192600579</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>96.06534340895344</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>36.5359789587112</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>57.43547118736295</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K36" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>32.58530581164344</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O36" t="n">
-        <v>443.693830623918</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,22 +10901,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>57.43547118736295</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>46.85259463716363</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>25.3164600720263</v>
+        <v>236.1109740409511</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O39" t="n">
-        <v>598.9516371401388</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>57.43547118736294</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K42" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>375.3775179846257</v>
       </c>
       <c r="N42" t="n">
-        <v>31.11708366641028</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.19856433495291</v>
+        <v>57.19856433495293</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11384,10 +11384,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>375.3775179846256</v>
+        <v>25.31646007202629</v>
       </c>
       <c r="N45" t="n">
-        <v>16.52629002932572</v>
+        <v>96.0653434089533</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.19856433495291</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.535560979117111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.07567249929846</v>
+        <v>31.31598316048607</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>134.6241321132921</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23439,7 +23439,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S13" t="n">
-        <v>4.199245825477902</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T13" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.535560979117111</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>71.24048330883107</v>
       </c>
       <c r="W14" t="n">
-        <v>123.0801449616332</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>119.5237140944932</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>13.53446045454695</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>151.9506836387004</v>
       </c>
       <c r="I16" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S16" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>48.16203254283363</v>
+        <v>283.1599051130062</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.535560979117108</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>125.0897031029503</v>
       </c>
       <c r="J19" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>196.9204403800746</v>
@@ -23946,16 +23946,16 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>85.56641839219506</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>33.8745323807627</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I20" t="n">
         <v>117.8804585990615</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.535560979117108</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T20" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V20" t="n">
-        <v>249.6746690888754</v>
+        <v>309.5298967991818</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24141,16 +24141,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3495920856427</v>
+        <v>72.85449996765311</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I22" t="n">
         <v>125.0897031029503</v>
       </c>
       <c r="J22" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>190.9787499762954</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>385.0505763489621</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S23" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T23" t="n">
-        <v>210.8745230867752</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>22.58846929725956</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24378,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3495920856427</v>
+        <v>160.532170586854</v>
       </c>
       <c r="H25" t="n">
         <v>151.9506836387004</v>
@@ -24387,7 +24387,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S25" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I26" t="n">
         <v>117.8804585990615</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.535560979117111</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T26" t="n">
-        <v>56.10019032673128</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U26" t="n">
         <v>253.1556234364382</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>309.5298967991818</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,19 +24612,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>120.4098267578354</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H28" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>72.59861174853151</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>385.0129302176054</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.535560979117111</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U29" t="n">
         <v>253.1556234364382</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>58.01128239339437</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T31" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.3097851581027</v>
+        <v>75.63313784146098</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.3050217056516</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>233.2117676501205</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>21.92465104593509</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25092,13 +25092,13 @@
         <v>166.3495920856427</v>
       </c>
       <c r="H34" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>197.8605843534681</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.535560979117111</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>153.5746362079504</v>
+        <v>3.062133895943646</v>
       </c>
       <c r="T35" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1556234364382</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>12.33840187861392</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25314,28 +25314,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>110.1124365091278</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>196.9204403800746</v>
+        <v>10.32724177742739</v>
       </c>
       <c r="T37" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25377,7 +25377,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8303762334285</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>228.8156093912287</v>
       </c>
       <c r="I38" t="n">
         <v>117.8804585990615</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.535560979117111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,22 +25557,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J40" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S40" t="n">
         <v>196.9204403800746</v>
@@ -25605,19 +25605,19 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>148.8028706323711</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7683940887261</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S41" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T41" t="n">
-        <v>219.0998921310412</v>
+        <v>57.85520003071781</v>
       </c>
       <c r="U41" t="n">
-        <v>210.6079449446292</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J43" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>119.9287613521965</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T43" t="n">
         <v>232.4136522254854</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>67.27194562720757</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>256.2177573323823</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.535560979117101</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>208.5520288964787</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>129.7107432292681</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>25.14670832172908</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737633.3783047228</v>
+        <v>737633.3783047227</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>587506.2125430412</v>
+        <v>587506.2125430413</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>587506.2125430412</v>
+        <v>587506.2125430414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>587506.2125430413</v>
+        <v>587506.2125430412</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>587506.2125430413</v>
+        <v>587506.2125430412</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>587506.2125430412</v>
+        <v>587506.2125430413</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>587506.2125430412</v>
+        <v>587506.2125430413</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>587506.2125430412</v>
+        <v>587506.2125430411</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>559029.7520894059</v>
       </c>
       <c r="C2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="D2" t="n">
-        <v>559029.7520894059</v>
+        <v>559029.7520894058</v>
       </c>
       <c r="E2" t="n">
+        <v>437341.4530440662</v>
+      </c>
+      <c r="F2" t="n">
+        <v>437341.4530440661</v>
+      </c>
+      <c r="G2" t="n">
+        <v>437341.453044066</v>
+      </c>
+      <c r="H2" t="n">
+        <v>437341.4530440664</v>
+      </c>
+      <c r="I2" t="n">
+        <v>437341.4530440664</v>
+      </c>
+      <c r="J2" t="n">
+        <v>437341.4530440664</v>
+      </c>
+      <c r="K2" t="n">
+        <v>437341.4530440664</v>
+      </c>
+      <c r="L2" t="n">
         <v>437341.4530440663</v>
-      </c>
-      <c r="F2" t="n">
-        <v>437341.4530440663</v>
-      </c>
-      <c r="G2" t="n">
-        <v>437341.4530440661</v>
-      </c>
-      <c r="H2" t="n">
-        <v>437341.4530440662</v>
-      </c>
-      <c r="I2" t="n">
-        <v>437341.4530440663</v>
-      </c>
-      <c r="J2" t="n">
-        <v>437341.4530440661</v>
-      </c>
-      <c r="K2" t="n">
-        <v>437341.4530440663</v>
-      </c>
-      <c r="L2" t="n">
-        <v>437341.453044066</v>
       </c>
       <c r="M2" t="n">
         <v>437341.4530440663</v>
       </c>
       <c r="N2" t="n">
-        <v>437341.4530440663</v>
+        <v>437341.4530440661</v>
       </c>
       <c r="O2" t="n">
+        <v>437341.453044066</v>
+      </c>
+      <c r="P2" t="n">
         <v>437341.4530440662</v>
-      </c>
-      <c r="P2" t="n">
-        <v>437341.4530440663</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81748.51785715733</v>
+        <v>81748.51785715736</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>37923.98334926045</v>
       </c>
       <c r="M4" t="n">
-        <v>37923.98334926044</v>
+        <v>37923.98334926045</v>
       </c>
       <c r="N4" t="n">
         <v>37923.98334926045</v>
@@ -26499,7 +26499,7 @@
         <v>58585.42736276834</v>
       </c>
       <c r="L5" t="n">
-        <v>58585.42736276835</v>
+        <v>58585.42736276834</v>
       </c>
       <c r="M5" t="n">
         <v>58585.42736276834</v>
@@ -26524,46 +26524,46 @@
         <v>102564.5160094519</v>
       </c>
       <c r="C6" t="n">
-        <v>300760.3220011971</v>
+        <v>300760.3220011968</v>
       </c>
       <c r="D6" t="n">
-        <v>300760.3220011969</v>
+        <v>300760.3220011967</v>
       </c>
       <c r="E6" t="n">
-        <v>144015.8097655351</v>
+        <v>143623.2668653888</v>
       </c>
       <c r="F6" t="n">
-        <v>340832.0423320375</v>
+        <v>340439.4994318911</v>
       </c>
       <c r="G6" t="n">
-        <v>340832.0423320373</v>
+        <v>340439.499431891</v>
       </c>
       <c r="H6" t="n">
-        <v>340832.0423320374</v>
+        <v>340439.4994318914</v>
       </c>
       <c r="I6" t="n">
-        <v>340832.0423320375</v>
+        <v>340439.4994318913</v>
       </c>
       <c r="J6" t="n">
-        <v>186092.6079664339</v>
+        <v>185700.065066288</v>
       </c>
       <c r="K6" t="n">
-        <v>340832.0423320375</v>
+        <v>340439.4994318913</v>
       </c>
       <c r="L6" t="n">
-        <v>340832.0423320372</v>
+        <v>340439.4994318912</v>
       </c>
       <c r="M6" t="n">
-        <v>259083.5244748802</v>
+        <v>258690.9815747339</v>
       </c>
       <c r="N6" t="n">
-        <v>340832.0423320375</v>
+        <v>340439.499431891</v>
       </c>
       <c r="O6" t="n">
-        <v>340832.0423320374</v>
+        <v>340439.499431891</v>
       </c>
       <c r="P6" t="n">
-        <v>340832.0423320375</v>
+        <v>340439.4994318911</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="F3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="G3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="H3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="I3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="J3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="K3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="L3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="M3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="N3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="O3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="P3" t="n">
         <v>123.0654348207076</v>
@@ -26798,34 +26798,34 @@
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="F4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="G4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="H4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="I4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="J4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="K4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="L4" t="n">
-        <v>919.4506724288968</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="M4" t="n">
         <v>919.4506724288967</v>
       </c>
       <c r="N4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="O4" t="n">
         <v>919.4506724288967</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.0385461596016</v>
+        <v>328.0385461596015</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.0385461596015</v>
+        <v>328.0385461596016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.0385461596016</v>
+        <v>328.0385461596015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>123.5263823748668</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>329.6844121631494</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>23.35765343595224</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>254.247473826421</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.5954306437195</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27627,16 +27627,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>19.81249427756629</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27824,25 +27824,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>87.62118754448949</v>
+        <v>147.1661297536951</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.8583115758566</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>271.9334883678957</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>105.8191335269068</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>105.7301632507279</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H11" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I11" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J11" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K11" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L11" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M11" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N11" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O11" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P11" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R11" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S11" t="n">
         <v>11.27378330040954</v>
@@ -31794,7 +31794,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H12" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I12" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J12" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K12" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L12" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M12" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N12" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O12" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P12" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q12" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R12" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T12" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U12" t="n">
         <v>0.01741492002179824</v>
@@ -31913,28 +31913,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H13" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I13" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J13" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K13" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L13" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M13" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N13" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O13" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P13" t="n">
         <v>26.84036958778184</v>
@@ -31943,13 +31943,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R13" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S13" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U13" t="n">
         <v>0.01210479686761059</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H14" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I14" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J14" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K14" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L14" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M14" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N14" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O14" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P14" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R14" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S14" t="n">
         <v>11.27378330040954</v>
@@ -32031,7 +32031,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H15" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I15" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J15" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K15" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L15" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M15" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O15" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P15" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q15" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R15" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S15" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T15" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U15" t="n">
         <v>0.01741492002179824</v>
@@ -32150,28 +32150,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H16" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I16" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J16" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K16" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L16" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M16" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N16" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O16" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P16" t="n">
         <v>26.84036958778184</v>
@@ -32180,13 +32180,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R16" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S16" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U16" t="n">
         <v>0.01210479686761059</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H17" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I17" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J17" t="n">
-        <v>41.99005004467952</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K17" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L17" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M17" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N17" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O17" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P17" t="n">
-        <v>71.14357129250763</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R17" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S17" t="n">
         <v>11.27378330040954</v>
       </c>
       <c r="T17" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H18" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I18" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J18" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K18" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L18" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M18" t="n">
-        <v>67.07066197728561</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N18" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O18" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P18" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R18" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S18" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T18" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H19" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I19" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J19" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K19" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L19" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M19" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N19" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O19" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P19" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R19" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S19" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U19" t="n">
         <v>0.01210479686761059</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4947354163646532</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H20" t="n">
-        <v>5.066709082844506</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I20" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J20" t="n">
-        <v>41.99005004467952</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K20" t="n">
-        <v>62.9322002193953</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L20" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M20" t="n">
-        <v>86.87121017873997</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N20" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O20" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P20" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.42585919394848</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R20" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S20" t="n">
         <v>11.27378330040954</v>
@@ -32505,7 +32505,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H21" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I21" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J21" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K21" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L21" t="n">
-        <v>57.4750410452748</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M21" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N21" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O21" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P21" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.78958882096107</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R21" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T21" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H22" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I22" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J22" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K22" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L22" t="n">
-        <v>32.99364132881724</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M22" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N22" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O22" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P22" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q22" t="n">
         <v>18.58288065792684</v>
       </c>
       <c r="R22" t="n">
-        <v>9.978387551200319</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S22" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9482090879628284</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U22" t="n">
         <v>0.01210479686761059</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H23" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I23" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J23" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K23" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L23" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M23" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N23" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O23" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P23" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R23" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S23" t="n">
         <v>11.27378330040954</v>
@@ -32742,7 +32742,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H24" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I24" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J24" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K24" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L24" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M24" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N24" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O24" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P24" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q24" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R24" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S24" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T24" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U24" t="n">
         <v>0.01741492002179824</v>
@@ -32861,28 +32861,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H25" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I25" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J25" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K25" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L25" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M25" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N25" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O25" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P25" t="n">
         <v>26.84036958778184</v>
@@ -32891,13 +32891,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R25" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S25" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U25" t="n">
         <v>0.01210479686761059</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H26" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I26" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J26" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K26" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L26" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M26" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N26" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O26" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P26" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R26" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S26" t="n">
         <v>11.27378330040954</v>
@@ -32979,7 +32979,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H27" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I27" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J27" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K27" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L27" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M27" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N27" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O27" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P27" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q27" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R27" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S27" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T27" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U27" t="n">
         <v>0.01741492002179824</v>
@@ -33098,28 +33098,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H28" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I28" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J28" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K28" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L28" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M28" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N28" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O28" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P28" t="n">
         <v>26.84036958778184</v>
@@ -33128,13 +33128,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R28" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S28" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U28" t="n">
         <v>0.01210479686761059</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H29" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I29" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J29" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K29" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L29" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M29" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N29" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O29" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P29" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R29" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S29" t="n">
         <v>11.27378330040954</v>
@@ -33216,7 +33216,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H30" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I30" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J30" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K30" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L30" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M30" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N30" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O30" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P30" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q30" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R30" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S30" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T30" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U30" t="n">
         <v>0.01741492002179824</v>
@@ -33335,28 +33335,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H31" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I31" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J31" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K31" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L31" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M31" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N31" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O31" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P31" t="n">
         <v>26.84036958778184</v>
@@ -33365,13 +33365,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R31" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S31" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U31" t="n">
         <v>0.01210479686761059</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H32" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I32" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J32" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K32" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L32" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M32" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N32" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O32" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P32" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R32" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S32" t="n">
         <v>11.27378330040954</v>
@@ -33453,7 +33453,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H33" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I33" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J33" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K33" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L33" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M33" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N33" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O33" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P33" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q33" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R33" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S33" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T33" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U33" t="n">
         <v>0.01741492002179824</v>
@@ -33572,28 +33572,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H34" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I34" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J34" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K34" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L34" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M34" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N34" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O34" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P34" t="n">
         <v>26.84036958778184</v>
@@ -33602,13 +33602,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R34" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S34" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U34" t="n">
         <v>0.01210479686761059</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H35" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I35" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J35" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K35" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L35" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M35" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N35" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O35" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P35" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R35" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S35" t="n">
         <v>11.27378330040954</v>
@@ -33690,7 +33690,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H36" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I36" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J36" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K36" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L36" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M36" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N36" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O36" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P36" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q36" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R36" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S36" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T36" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U36" t="n">
         <v>0.01741492002179824</v>
@@ -33809,28 +33809,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H37" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I37" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J37" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K37" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L37" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M37" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N37" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O37" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P37" t="n">
         <v>26.84036958778184</v>
@@ -33839,13 +33839,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R37" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S37" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U37" t="n">
         <v>0.01210479686761059</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4947354163646531</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H38" t="n">
-        <v>5.066709082844505</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I38" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J38" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K38" t="n">
-        <v>62.93220021939529</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L38" t="n">
-        <v>78.07295921796506</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M38" t="n">
-        <v>86.87121017873996</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N38" t="n">
-        <v>88.27687718048604</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O38" t="n">
-        <v>83.35735188401001</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P38" t="n">
-        <v>71.14357129250763</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.42585919394847</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R38" t="n">
-        <v>31.07742359821617</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S38" t="n">
         <v>11.27378330040954</v>
@@ -33927,7 +33927,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03957883330917224</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H39" t="n">
-        <v>2.556510259199982</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I39" t="n">
-        <v>9.11380814474108</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J39" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K39" t="n">
-        <v>42.74434069616972</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L39" t="n">
-        <v>57.47504104527479</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M39" t="n">
-        <v>67.07066197728561</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N39" t="n">
-        <v>68.84582282484092</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O39" t="n">
-        <v>62.98047776149927</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P39" t="n">
-        <v>50.54738586060346</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q39" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R39" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S39" t="n">
-        <v>4.9168124194877</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T39" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U39" t="n">
         <v>0.01741492002179824</v>
@@ -34046,28 +34046,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H40" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I40" t="n">
-        <v>6.673778006342634</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J40" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K40" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L40" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M40" t="n">
-        <v>34.78716873136819</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N40" t="n">
-        <v>33.9600076120815</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O40" t="n">
-        <v>31.36756361626822</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P40" t="n">
         <v>26.84036958778184</v>
@@ -34076,13 +34076,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R40" t="n">
-        <v>9.978387551200317</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S40" t="n">
-        <v>3.867482599201578</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9482090879628283</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U40" t="n">
         <v>0.01210479686761059</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H41" t="n">
-        <v>5.066709082844507</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I41" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J41" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K41" t="n">
-        <v>62.93220021939531</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L41" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M41" t="n">
-        <v>86.87121017873999</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N41" t="n">
-        <v>88.27687718048607</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O41" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P41" t="n">
-        <v>71.14357129250764</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.42585919394849</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R41" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S41" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T41" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03957883330917225</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H42" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I42" t="n">
-        <v>9.113808144741082</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K42" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L42" t="n">
-        <v>57.47504104527481</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M42" t="n">
-        <v>67.07066197728562</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N42" t="n">
-        <v>68.84582282484094</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O42" t="n">
-        <v>62.98047776149929</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P42" t="n">
-        <v>50.54738586060347</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R42" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S42" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T42" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H43" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I43" t="n">
-        <v>6.673778006342636</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J43" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K43" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L43" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M43" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N43" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O43" t="n">
-        <v>31.36756361626823</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P43" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R43" t="n">
-        <v>9.978387551200321</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S43" t="n">
-        <v>3.867482599201579</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9482090879628287</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34786,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="O3" t="n">
-        <v>414.9454010832019</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34938,25 +34938,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>181.2944783293118</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N6" t="n">
-        <v>330.4341341043857</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736839</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>216.176576306681</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P11" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q11" t="n">
         <v>240.1385462050076</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L12" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M12" t="n">
-        <v>444.7923591880316</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N12" t="n">
-        <v>731.2478139466177</v>
+        <v>109.1435586542165</v>
       </c>
       <c r="O12" t="n">
         <v>584.7181369443084</v>
@@ -35664,7 +35664,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P14" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q14" t="n">
         <v>240.1385462050076</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>289.5345526718107</v>
       </c>
       <c r="M15" t="n">
         <v>701.1834393779736</v>
       </c>
       <c r="N15" t="n">
-        <v>560.5164264988375</v>
+        <v>731.2478139466177</v>
       </c>
       <c r="O15" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P15" t="n">
-        <v>460.2659401195908</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K17" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L17" t="n">
         <v>576.376284186176</v>
@@ -35901,7 +35901,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P17" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q17" t="n">
         <v>240.1385462050076</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>530.4520519301934</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N18" t="n">
         <v>731.2478139466177</v>
@@ -35980,7 +35980,7 @@
         <v>584.7181369443084</v>
       </c>
       <c r="P18" t="n">
-        <v>460.2659401195908</v>
+        <v>289.5345526718109</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K20" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L20" t="n">
         <v>576.376284186176</v>
@@ -36138,7 +36138,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P20" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q20" t="n">
         <v>240.1385462050076</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M21" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>731.2478139466177</v>
+        <v>79.53905337962769</v>
       </c>
       <c r="O21" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P21" t="n">
-        <v>289.5345526718109</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P23" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q23" t="n">
         <v>240.1385462050076</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L24" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M24" t="n">
-        <v>444.7923591880316</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>731.2478139466177</v>
+        <v>79.53905337962769</v>
       </c>
       <c r="O24" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P26" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q26" t="n">
         <v>240.1385462050076</v>
@@ -36679,19 +36679,19 @@
         <v>365.713175102459</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>79.53905337962769</v>
       </c>
       <c r="N27" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>478.9350092390711</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P27" t="n">
-        <v>460.2659401195908</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q27" t="n">
         <v>270.5220045329717</v>
@@ -36849,7 +36849,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P29" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1385462050076</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L30" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M30" t="n">
-        <v>444.792359188032</v>
+        <v>79.53905337962769</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P32" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q32" t="n">
         <v>240.1385462050076</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L33" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M33" t="n">
-        <v>444.7923591880316</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>731.2478139466177</v>
+        <v>79.53905337962769</v>
       </c>
       <c r="O33" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P35" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q35" t="n">
         <v>240.1385462050076</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M36" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>413.9867494965283</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P36" t="n">
-        <v>460.2659401195908</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P38" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q38" t="n">
         <v>240.1385462050076</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L39" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>210.7945139689248</v>
       </c>
       <c r="N39" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>569.2445560127492</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P39" t="n">
-        <v>460.2659401195908</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K41" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L41" t="n">
         <v>576.376284186176</v>
@@ -37794,10 +37794,10 @@
         <v>621.4195879253972</v>
       </c>
       <c r="O41" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P41" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q41" t="n">
         <v>240.1385462050076</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L42" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M42" t="n">
-        <v>701.1834393779736</v>
+        <v>350.0610579125994</v>
       </c>
       <c r="N42" t="n">
-        <v>14.59079363708456</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P42" t="n">
-        <v>460.2659401195908</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37946,7 +37946,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M43" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N43" t="n">
         <v>219.0000419870403</v>
@@ -37958,7 +37958,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.1009317707686</v>
+        <v>188.1009317707685</v>
       </c>
       <c r="K44" t="n">
         <v>425.540640651175</v>
@@ -38104,10 +38104,10 @@
         <v>545.9256328617529</v>
       </c>
       <c r="M45" t="n">
-        <v>350.0610579125993</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>79.53905337962757</v>
       </c>
       <c r="O45" t="n">
         <v>584.7181369443084</v>
@@ -38116,7 +38116,7 @@
         <v>460.2659401195908</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
